--- a/Data/Costum_lexicon.xlsx
+++ b/Data/Costum_lexicon.xlsx
@@ -24,7 +24,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t xml:space="preserve"> بخير</t>
+    <t>بخير</t>
   </si>
   <si>
     <t>حب</t>
